--- a/Filter Function.xlsx
+++ b/Filter Function.xlsx
@@ -1,26 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikhi\OneDrive\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{686203ED-C796-449D-BFA9-9BBF50957FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCDEC4E-F016-4C9E-9456-E73F6DEDD05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B44BE152-2EEF-4164-BCE3-49D99AF18B1A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{B44BE152-2EEF-4164-BCE3-49D99AF18B1A}"/>
   </bookViews>
   <sheets>
     <sheet name="new1" sheetId="1" r:id="rId1"/>
+    <sheet name="offset-indirect" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="new_range">'offset-indirect'!$C$5:$G$12</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -42,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4053" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4068" uniqueCount="344">
   <si>
     <t>OrderID</t>
   </si>
@@ -1030,12 +1045,57 @@
   <si>
     <t>James Kerr</t>
   </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>refrence point</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
+  <si>
+    <t>offset()</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>june</t>
+  </si>
+  <si>
+    <t>july</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>Average+COUNTA+offset()</t>
+  </si>
+  <si>
+    <t>Average+COUNT+offset()</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,8 +1230,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1363,8 +1431,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -1507,6 +1581,352 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1552,18 +1972,63 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1921,26 +2386,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73DE005-B08A-483B-842B-BF6240048C6B}">
   <dimension ref="A1:X1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" zoomScale="85" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="L1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
     <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
     <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.36328125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.1796875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.81640625" customWidth="1"/>
-    <col min="14" max="14" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.08984375" customWidth="1"/>
     <col min="15" max="15" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
@@ -1953,73 +2418,73 @@
     <col min="24" max="24" width="9.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6" t="s">
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2061,18 +2526,18 @@
         <v>11</v>
       </c>
       <c r="M2" s="2"/>
-      <c r="N2" s="9" t="s">
-        <v>26</v>
+      <c r="N2" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="O2" s="2" cm="1">
-        <f t="array" ref="O2:X11">_xlfn._xlws.FILTER(A2:J1001,(C2:C1001=N2)*(D2:D1001=N3),"Not avaliable")</f>
-        <v>1005</v>
+        <f t="array" ref="O2:X7">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A2:J1001,(C2:C1001=N2)*(D2:D1001=N3),"Not avaliable"),10,-1)</f>
+        <v>1192</v>
       </c>
       <c r="P2" s="2">
-        <v>45350</v>
+        <v>44285</v>
       </c>
       <c r="Q2" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R2" s="2" t="str">
         <v>Bed</v>
@@ -2081,19 +2546,19 @@
         <v>Furniture</v>
       </c>
       <c r="T2" s="2">
-        <v>393.8</v>
+        <v>4013.62</v>
       </c>
       <c r="U2" s="2" t="str">
-        <v>Daniel Cabrera</v>
+        <v>Lisa Vega</v>
       </c>
       <c r="V2" s="3">
-        <v>24033</v>
+        <v>34164</v>
       </c>
       <c r="W2" s="2">
-        <v>45364</v>
+        <v>44292</v>
       </c>
       <c r="X2" s="2">
-        <v>7.32</v>
+        <v>45.04</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
@@ -2134,17 +2599,17 @@
         <v>15</v>
       </c>
       <c r="M3" s="2"/>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>27</v>
       </c>
       <c r="O3" s="2">
-        <v>1075</v>
+        <v>1239</v>
       </c>
       <c r="P3" s="2">
-        <v>45212</v>
+        <v>45792</v>
       </c>
       <c r="Q3" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R3" s="2" t="str">
         <v>Bed</v>
@@ -2153,19 +2618,19 @@
         <v>Furniture</v>
       </c>
       <c r="T3" s="2">
-        <v>4787.12</v>
+        <v>2305.0300000000002</v>
       </c>
       <c r="U3" s="2" t="str">
-        <v>Kevin Preston</v>
+        <v>Shannon Foster</v>
       </c>
       <c r="V3" s="3">
-        <v>32064</v>
+        <v>31386</v>
       </c>
       <c r="W3" s="2">
-        <v>45226</v>
+        <v>45803</v>
       </c>
       <c r="X3" s="2">
-        <v>1.25</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
@@ -2205,15 +2670,14 @@
       <c r="L4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="4"/>
       <c r="O4" s="2">
-        <v>1364</v>
+        <v>1893</v>
       </c>
       <c r="P4" s="2">
-        <v>45666</v>
+        <v>44597</v>
       </c>
       <c r="Q4" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R4" s="2" t="str">
         <v>Bed</v>
@@ -2222,19 +2686,19 @@
         <v>Furniture</v>
       </c>
       <c r="T4" s="2">
-        <v>178.24</v>
+        <v>1953.69</v>
       </c>
       <c r="U4" s="2" t="str">
-        <v>Wesley Olson</v>
+        <v>Dorothy Thomas</v>
       </c>
       <c r="V4" s="3">
-        <v>27166</v>
+        <v>30364</v>
       </c>
       <c r="W4" s="2">
-        <v>45676</v>
+        <v>44611</v>
       </c>
       <c r="X4" s="2">
-        <v>40.270000000000003</v>
+        <v>32.869999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -2274,15 +2738,14 @@
       <c r="L5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="4"/>
       <c r="O5" s="2">
-        <v>1526</v>
+        <v>1773</v>
       </c>
       <c r="P5" s="2">
-        <v>44476</v>
+        <v>45104</v>
       </c>
       <c r="Q5" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R5" s="2" t="str">
         <v>Bed</v>
@@ -2291,19 +2754,19 @@
         <v>Furniture</v>
       </c>
       <c r="T5" s="2">
-        <v>651.98</v>
+        <v>3826.79</v>
       </c>
       <c r="U5" s="2" t="str">
-        <v>Benjamin Travis</v>
+        <v>Jonathan Gillespie MD</v>
       </c>
       <c r="V5" s="3">
-        <v>33354</v>
+        <v>23838</v>
       </c>
       <c r="W5" s="2">
-        <v>44487</v>
+        <v>45113</v>
       </c>
       <c r="X5" s="2">
-        <v>41.88</v>
+        <v>29.62</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -2343,15 +2806,14 @@
       <c r="L6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="4"/>
       <c r="O6" s="2">
-        <v>1532</v>
+        <v>1800</v>
       </c>
       <c r="P6" s="2">
-        <v>44104</v>
+        <v>44679</v>
       </c>
       <c r="Q6" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R6" s="2" t="str">
         <v>Bed</v>
@@ -2360,19 +2822,19 @@
         <v>Furniture</v>
       </c>
       <c r="T6" s="2">
-        <v>4840.1400000000003</v>
+        <v>2611.02</v>
       </c>
       <c r="U6" s="2" t="str">
-        <v>Dale Davis</v>
+        <v>Justin Robinson</v>
       </c>
       <c r="V6" s="3">
-        <v>36645</v>
+        <v>35629</v>
       </c>
       <c r="W6" s="2">
-        <v>44111</v>
+        <v>44693</v>
       </c>
       <c r="X6" s="2">
-        <v>37.380000000000003</v>
+        <v>25.45</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -2410,13 +2872,13 @@
         <v>27</v>
       </c>
       <c r="O7" s="2">
-        <v>1561</v>
+        <v>1055</v>
       </c>
       <c r="P7" s="2">
-        <v>44315</v>
+        <v>45293</v>
       </c>
       <c r="Q7" s="2" t="str">
-        <v>East</v>
+        <v>Central</v>
       </c>
       <c r="R7" s="2" t="str">
         <v>Bed</v>
@@ -2425,19 +2887,19 @@
         <v>Furniture</v>
       </c>
       <c r="T7" s="2">
-        <v>4446.5200000000004</v>
+        <v>2130.08</v>
       </c>
       <c r="U7" s="2" t="str">
-        <v>Caitlin Crane</v>
+        <v>Andrea Mendez</v>
       </c>
       <c r="V7" s="3">
-        <v>33332</v>
+        <v>36236</v>
       </c>
       <c r="W7" s="2">
-        <v>44318</v>
+        <v>45298</v>
       </c>
       <c r="X7" s="2">
-        <v>11.97</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
@@ -2474,36 +2936,16 @@
       <c r="L8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="2">
-        <v>1603</v>
-      </c>
-      <c r="P8" s="2">
-        <v>44250</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <v>East</v>
-      </c>
-      <c r="R8" s="2" t="str">
-        <v>Bed</v>
-      </c>
-      <c r="S8" s="2" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="T8" s="2">
-        <v>3665.39</v>
-      </c>
-      <c r="U8" s="2" t="str">
-        <v>Laura Sanchez</v>
-      </c>
-      <c r="V8" s="3">
-        <v>30923</v>
-      </c>
-      <c r="W8" s="2">
-        <v>44254</v>
-      </c>
-      <c r="X8" s="2">
-        <v>16.36</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
@@ -2539,36 +2981,16 @@
       <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="2">
-        <v>1631</v>
-      </c>
-      <c r="P9" s="2">
-        <v>45537</v>
-      </c>
-      <c r="Q9" s="2" t="str">
-        <v>East</v>
-      </c>
-      <c r="R9" s="2" t="str">
-        <v>Bed</v>
-      </c>
-      <c r="S9" s="2" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="T9" s="2">
-        <v>3800.43</v>
-      </c>
-      <c r="U9" s="2" t="str">
-        <v>Douglas Garrison</v>
-      </c>
-      <c r="V9" s="3">
-        <v>37490</v>
-      </c>
-      <c r="W9" s="2">
-        <v>45538</v>
-      </c>
-      <c r="X9" s="2">
-        <v>7.33</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
@@ -2604,36 +3026,16 @@
       <c r="L10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="O10" s="2">
-        <v>1872</v>
-      </c>
-      <c r="P10" s="2">
-        <v>45225</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <v>East</v>
-      </c>
-      <c r="R10" s="2" t="str">
-        <v>Bed</v>
-      </c>
-      <c r="S10" s="2" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="T10" s="2">
-        <v>4245.3900000000003</v>
-      </c>
-      <c r="U10" s="2" t="str">
-        <v>Lisa Smith</v>
-      </c>
-      <c r="V10" s="3">
-        <v>26484</v>
-      </c>
-      <c r="W10" s="2">
-        <v>45239</v>
-      </c>
-      <c r="X10" s="2">
-        <v>43.28</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
@@ -2669,36 +3071,16 @@
       <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O11" s="2">
-        <v>1889</v>
-      </c>
-      <c r="P11" s="2">
-        <v>45770</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <v>East</v>
-      </c>
-      <c r="R11" s="2" t="str">
-        <v>Bed</v>
-      </c>
-      <c r="S11" s="2" t="str">
-        <v>Furniture</v>
-      </c>
-      <c r="T11" s="2">
-        <v>3969.72</v>
-      </c>
-      <c r="U11" s="2" t="str">
-        <v>Melissa Douglas</v>
-      </c>
-      <c r="V11" s="3">
-        <v>33386</v>
-      </c>
-      <c r="W11" s="2">
-        <v>45782</v>
-      </c>
-      <c r="X11" s="2">
-        <v>27.89</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
@@ -2875,7 +3257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>1015</v>
       </c>
@@ -2909,9 +3291,8 @@
       <c r="L17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q17" s="5"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>1016</v>
       </c>
@@ -2946,7 +3327,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>1017</v>
       </c>
@@ -2981,7 +3362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>1018</v>
       </c>
@@ -3016,7 +3397,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>1019</v>
       </c>
@@ -3051,7 +3432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>1020</v>
       </c>
@@ -3086,7 +3467,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>1021</v>
       </c>
@@ -3121,7 +3502,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>1022</v>
       </c>
@@ -3156,7 +3537,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>1023</v>
       </c>
@@ -3191,7 +3572,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>1024</v>
       </c>
@@ -3223,7 +3604,7 @@
         <v>1.62</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>1025</v>
       </c>
@@ -3255,7 +3636,7 @@
         <v>38.22</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>1026</v>
       </c>
@@ -3287,7 +3668,7 @@
         <v>40.1</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>1027</v>
       </c>
@@ -3319,7 +3700,7 @@
         <v>5.46</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>1028</v>
       </c>
@@ -3351,7 +3732,7 @@
         <v>19.98</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>1029</v>
       </c>
@@ -3383,7 +3764,7 @@
         <v>6.11</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>1030</v>
       </c>
@@ -34434,4 +34815,232 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7867BB15-DCA6-42DE-AA87-EEADFBC0AD68}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="12.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="22"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B2" s="12">
+        <v>24000</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="33"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="13">
+        <v>90000</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="33"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="13">
+        <v>23400</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13" t="str">
+        <f ca="1">OFFSET(E2,1,-4,1,1)</f>
+        <v>feb</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" ref="E5" ca="1" si="0">OFFSET(F2,1,-4,1,1)</f>
+        <v>20000</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="33"/>
+      <c r="J5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="13">
+        <v>90042</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13" t="str">
+        <f t="shared" ref="D6:E6" ca="1" si="1">OFFSET(E3,1,-4,1,1)</f>
+        <v>march</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" ca="1" si="1"/>
+        <v>90000</v>
+      </c>
+      <c r="F6" s="16" cm="1">
+        <f t="array" aca="1" ref="F6:F7" ca="1">OFFSET(B1,3,0,2,1)</f>
+        <v>90000</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="33"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="13">
+        <v>80000</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13" t="str">
+        <f t="shared" ref="D7:E7" ca="1" si="2">OFFSET(E4,1,-4,1,1)</f>
+        <v>april</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" ca="1" si="2"/>
+        <v>23400</v>
+      </c>
+      <c r="F7" s="17">
+        <f ca="1"/>
+        <v>23400</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="13">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="B9" s="13">
+        <v>24000</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="31" t="s">
+        <v>342</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="17"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="19">
+        <f ca="1">AVERAGE(OFFSET(B1,COUNT(B:B),0,-3,1))</f>
+        <v>41333.333333333336</v>
+      </c>
+      <c r="E11" s="18"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="36">
+        <f ca="1">AVERAGE(OFFSET(B1,COUNTA(B:B)-1,0,-3,1))</f>
+        <v>41333.333333333336</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G13" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:F2"/>
+    <mergeCell ref="D9:F10"/>
+    <mergeCell ref="G9:I10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>